--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H2">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I2">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J2">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.969549353884781</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N2">
-        <v>0.969549353884781</v>
+        <v>2.222197</v>
       </c>
       <c r="O2">
-        <v>0.2768928373407342</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P2">
-        <v>0.2768928373407342</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q2">
-        <v>7.070824095169209</v>
+        <v>5.824758579597777</v>
       </c>
       <c r="R2">
-        <v>7.070824095169209</v>
+        <v>52.42282721637999</v>
       </c>
       <c r="S2">
-        <v>0.03563733813891476</v>
+        <v>0.01650651804611441</v>
       </c>
       <c r="T2">
-        <v>0.03563733813891476</v>
+        <v>0.01803356299432067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H3">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I3">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J3">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805860629273945</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N3">
-        <v>0.805860629273945</v>
+        <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.2301451032345995</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P3">
-        <v>0.2301451032345995</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q3">
-        <v>5.877058998582531</v>
+        <v>8.497223388182221</v>
       </c>
       <c r="R3">
-        <v>5.877058998582531</v>
+        <v>76.47501049364</v>
       </c>
       <c r="S3">
-        <v>0.02962069710345769</v>
+        <v>0.0240798943479269</v>
       </c>
       <c r="T3">
-        <v>0.02962069710345769</v>
+        <v>0.02630756470909058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H4">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I4">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J4">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.53263119559408</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N4">
-        <v>1.53263119559408</v>
+        <v>4.236167</v>
       </c>
       <c r="O4">
-        <v>0.4377029376014604</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P4">
-        <v>0.4377029376014604</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q4">
-        <v>11.17732227182986</v>
+        <v>11.10371856224222</v>
       </c>
       <c r="R4">
-        <v>11.17732227182986</v>
+        <v>99.93346706017999</v>
       </c>
       <c r="S4">
-        <v>0.05633431236975091</v>
+        <v>0.03146632230709263</v>
       </c>
       <c r="T4">
-        <v>0.05633431236975091</v>
+        <v>0.03437732318465123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H5">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I5">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J5">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.19349162793258</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N5">
-        <v>0.19349162793258</v>
+        <v>5.739155</v>
       </c>
       <c r="O5">
-        <v>0.05525912182320596</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P5">
-        <v>0.05525912182320596</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q5">
-        <v>1.411114616824127</v>
+        <v>15.04330728818889</v>
       </c>
       <c r="R5">
-        <v>1.411114616824127</v>
+        <v>135.3897655937</v>
       </c>
       <c r="S5">
-        <v>0.007112094442694958</v>
+        <v>0.04263054336629368</v>
       </c>
       <c r="T5">
-        <v>0.007112094442694958</v>
+        <v>0.04657436457103959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.6680416126258</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H6">
-        <v>13.6680416126258</v>
+        <v>23.59054</v>
       </c>
       <c r="I6">
-        <v>0.2412124482422406</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J6">
-        <v>0.2412124482422406</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.969549353884781</v>
+        <v>0.762342</v>
       </c>
       <c r="N6">
-        <v>0.969549353884781</v>
+        <v>1.524684</v>
       </c>
       <c r="O6">
-        <v>0.2768928373407342</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P6">
-        <v>0.2768928373407342</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q6">
-        <v>13.25184091439164</v>
+        <v>5.99468648156</v>
       </c>
       <c r="R6">
-        <v>13.25184091439164</v>
+        <v>35.96811888935999</v>
       </c>
       <c r="S6">
-        <v>0.06678999919569899</v>
+        <v>0.01698806898800279</v>
       </c>
       <c r="T6">
-        <v>0.06678999919569899</v>
+        <v>0.01237310866697814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H7">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J7">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.805860629273945</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N7">
-        <v>0.805860629273945</v>
+        <v>2.222197</v>
       </c>
       <c r="O7">
-        <v>0.2301451032345995</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P7">
-        <v>0.2301451032345995</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q7">
-        <v>11.01453661489309</v>
+        <v>11.20711551384456</v>
       </c>
       <c r="R7">
-        <v>11.01453661489309</v>
+        <v>100.864039624601</v>
       </c>
       <c r="S7">
-        <v>0.05551386380218094</v>
+        <v>0.0317593342189537</v>
       </c>
       <c r="T7">
-        <v>0.05551386380218094</v>
+        <v>0.03469744210711998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H8">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J8">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.53263119559408</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N8">
-        <v>1.53263119559408</v>
+        <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.4377029376014604</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P8">
-        <v>0.4377029376014604</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q8">
-        <v>20.94806695818831</v>
+        <v>16.34906627578644</v>
       </c>
       <c r="R8">
-        <v>20.94806695818831</v>
+        <v>147.141596482078</v>
       </c>
       <c r="S8">
-        <v>0.1055793971816689</v>
+        <v>0.04633087428956149</v>
       </c>
       <c r="T8">
-        <v>0.1055793971816689</v>
+        <v>0.05061701915259084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H9">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J9">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.19349162793258</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N9">
-        <v>0.19349162793258</v>
+        <v>4.236167</v>
       </c>
       <c r="O9">
-        <v>0.05525912182320596</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P9">
-        <v>0.05525912182320596</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q9">
-        <v>2.644651622277212</v>
+        <v>21.36408828962345</v>
       </c>
       <c r="R9">
-        <v>2.644651622277212</v>
+        <v>192.276794606611</v>
       </c>
       <c r="S9">
-        <v>0.01332918806269173</v>
+        <v>0.06054271676197136</v>
       </c>
       <c r="T9">
-        <v>0.01332918806269173</v>
+        <v>0.06614362238748056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6481936209349</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H10">
-        <v>13.6481936209349</v>
+        <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2408621725550469</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J10">
-        <v>0.2408621725550469</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.969549353884781</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N10">
-        <v>0.969549353884781</v>
+        <v>5.739155</v>
       </c>
       <c r="O10">
-        <v>0.2768928373407342</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P10">
-        <v>0.2768928373407342</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q10">
-        <v>13.23259730687182</v>
+        <v>28.94404638151278</v>
       </c>
       <c r="R10">
-        <v>13.23259730687182</v>
+        <v>260.496417433615</v>
       </c>
       <c r="S10">
-        <v>0.06669301036682047</v>
+        <v>0.08202321476420825</v>
       </c>
       <c r="T10">
-        <v>0.06669301036682047</v>
+        <v>0.08961131634877025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6481936209349</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H11">
-        <v>13.6481936209349</v>
+        <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2408621725550469</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J11">
-        <v>0.2408621725550469</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.805860629273945</v>
+        <v>0.762342</v>
       </c>
       <c r="N11">
-        <v>0.805860629273945</v>
+        <v>1.524684</v>
       </c>
       <c r="O11">
-        <v>0.2301451032345995</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P11">
-        <v>0.2301451032345995</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q11">
-        <v>10.99854189981924</v>
+        <v>11.534064965962</v>
       </c>
       <c r="R11">
-        <v>10.99854189981924</v>
+        <v>69.204389795772</v>
       </c>
       <c r="S11">
-        <v>0.05543324956799119</v>
+        <v>0.03268586138017323</v>
       </c>
       <c r="T11">
-        <v>0.05543324956799119</v>
+        <v>0.02380645587301761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H12">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I12">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J12">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.53263119559408</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N12">
-        <v>1.53263119559408</v>
+        <v>2.222197</v>
       </c>
       <c r="O12">
-        <v>0.4377029376014604</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P12">
-        <v>0.4377029376014604</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q12">
-        <v>20.91764730695295</v>
+        <v>10.65348006928311</v>
       </c>
       <c r="R12">
-        <v>20.91764730695295</v>
+        <v>95.88132062354799</v>
       </c>
       <c r="S12">
-        <v>0.1054260804844139</v>
+        <v>0.03019041194831548</v>
       </c>
       <c r="T12">
-        <v>0.1054260804844139</v>
+        <v>0.03298337627435598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H13">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I13">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J13">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.19349162793258</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N13">
-        <v>0.19349162793258</v>
+        <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.05525912182320596</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P13">
-        <v>0.05525912182320596</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q13">
-        <v>2.640811202053748</v>
+        <v>15.54141665670489</v>
       </c>
       <c r="R13">
-        <v>2.640811202053748</v>
+        <v>139.872749910344</v>
       </c>
       <c r="S13">
-        <v>0.01330983213582139</v>
+        <v>0.04404211281899979</v>
       </c>
       <c r="T13">
-        <v>0.01330983213582139</v>
+        <v>0.04811652061964528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.2825908365474</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H14">
-        <v>14.2825908365474</v>
+        <v>43.147084</v>
       </c>
       <c r="I14">
-        <v>0.2520579612329652</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J14">
-        <v>0.2520579612329652</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.969549353884781</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N14">
-        <v>0.969549353884781</v>
+        <v>4.236167</v>
       </c>
       <c r="O14">
-        <v>0.2768928373407342</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P14">
-        <v>0.2768928373407342</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q14">
-        <v>13.84767671737523</v>
+        <v>20.30869482078089</v>
       </c>
       <c r="R14">
-        <v>13.84767671737523</v>
+        <v>182.778253387028</v>
       </c>
       <c r="S14">
-        <v>0.06979304406011652</v>
+        <v>0.0575518852792348</v>
       </c>
       <c r="T14">
-        <v>0.06979304406011652</v>
+        <v>0.06287610419868703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.2825908365474</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H15">
-        <v>14.2825908365474</v>
+        <v>43.147084</v>
       </c>
       <c r="I15">
-        <v>0.2520579612329652</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J15">
-        <v>0.2520579612329652</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.805860629273945</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N15">
-        <v>0.805860629273945</v>
+        <v>5.739155</v>
       </c>
       <c r="O15">
-        <v>0.2301451032345995</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P15">
-        <v>0.2301451032345995</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q15">
-        <v>11.50977763920237</v>
+        <v>27.51420031933556</v>
       </c>
       <c r="R15">
-        <v>11.50977763920237</v>
+        <v>247.62780287402</v>
       </c>
       <c r="S15">
-        <v>0.05800990550906345</v>
+        <v>0.07797123913191968</v>
       </c>
       <c r="T15">
-        <v>0.05800990550906345</v>
+        <v>0.08518448583174736</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.2825908365474</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H16">
-        <v>14.2825908365474</v>
+        <v>43.147084</v>
       </c>
       <c r="I16">
-        <v>0.2520579612329652</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J16">
-        <v>0.2520579612329652</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.53263119559408</v>
+        <v>0.762342</v>
       </c>
       <c r="N16">
-        <v>1.53263119559408</v>
+        <v>1.524684</v>
       </c>
       <c r="O16">
-        <v>0.4377029376014604</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P16">
-        <v>0.4377029376014604</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q16">
-        <v>21.88994426999869</v>
+        <v>10.964278103576</v>
       </c>
       <c r="R16">
-        <v>21.88994426999869</v>
+        <v>65.785668621456</v>
       </c>
       <c r="S16">
-        <v>0.1103265100775039</v>
+        <v>0.03107116834218935</v>
       </c>
       <c r="T16">
-        <v>0.1103265100775039</v>
+        <v>0.02263040858730804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H17">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I17">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J17">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.19349162793258</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N17">
-        <v>0.19349162793258</v>
+        <v>2.222197</v>
       </c>
       <c r="O17">
-        <v>0.05525912182320596</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P17">
-        <v>0.05525912182320596</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q17">
-        <v>2.763561752058506</v>
+        <v>10.77291500997744</v>
       </c>
       <c r="R17">
-        <v>2.763561752058506</v>
+        <v>96.95623508979699</v>
       </c>
       <c r="S17">
-        <v>0.01392850158628135</v>
+        <v>0.0305288731870032</v>
       </c>
       <c r="T17">
-        <v>0.01392850158628135</v>
+        <v>0.03335314911511858</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.77219117909744</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H18">
-        <v>7.77219117909744</v>
+        <v>43.630801</v>
       </c>
       <c r="I18">
-        <v>0.137162975914929</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J18">
-        <v>0.137162975914929</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.969549353884781</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N18">
-        <v>0.969549353884781</v>
+        <v>3.241766</v>
       </c>
       <c r="O18">
-        <v>0.2768928373407342</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P18">
-        <v>0.2768928373407342</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q18">
-        <v>7.535522935962917</v>
+        <v>15.71564969272955</v>
       </c>
       <c r="R18">
-        <v>7.535522935962917</v>
+        <v>141.440847234566</v>
       </c>
       <c r="S18">
-        <v>0.03797944557918348</v>
+        <v>0.04453586388422746</v>
       </c>
       <c r="T18">
-        <v>0.03797944557918348</v>
+        <v>0.04865594940247039</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.77219117909744</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H19">
-        <v>7.77219117909744</v>
+        <v>43.630801</v>
       </c>
       <c r="I19">
-        <v>0.137162975914929</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J19">
-        <v>0.137162975914929</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.805860629273945</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N19">
-        <v>0.805860629273945</v>
+        <v>4.236167</v>
       </c>
       <c r="O19">
-        <v>0.2301451032345995</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P19">
-        <v>0.2301451032345995</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q19">
-        <v>6.263302874424868</v>
+        <v>20.53637326441855</v>
       </c>
       <c r="R19">
-        <v>6.263302874424868</v>
+        <v>184.827359379767</v>
       </c>
       <c r="S19">
-        <v>0.03156738725190621</v>
+        <v>0.05819709285088936</v>
       </c>
       <c r="T19">
-        <v>0.03156738725190621</v>
+        <v>0.06358100097675612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.77219117909744</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H20">
-        <v>7.77219117909744</v>
+        <v>43.630801</v>
       </c>
       <c r="I20">
-        <v>0.137162975914929</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J20">
-        <v>0.137162975914929</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.53263119559408</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N20">
-        <v>1.53263119559408</v>
+        <v>5.739155</v>
       </c>
       <c r="O20">
-        <v>0.4377029376014604</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P20">
-        <v>0.4377029376014604</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q20">
-        <v>11.91190265920587</v>
+        <v>27.82265885701722</v>
       </c>
       <c r="R20">
-        <v>11.91190265920587</v>
+        <v>250.403929713155</v>
       </c>
       <c r="S20">
-        <v>0.06003663748812278</v>
+        <v>0.07884536573290098</v>
       </c>
       <c r="T20">
-        <v>0.06003663748812278</v>
+        <v>0.08613947931249047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.77219117909744</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H21">
-        <v>7.77219117909744</v>
+        <v>43.630801</v>
       </c>
       <c r="I21">
-        <v>0.137162975914929</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J21">
-        <v>0.137162975914929</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.19349162793258</v>
+        <v>0.762342</v>
       </c>
       <c r="N21">
-        <v>0.19349162793258</v>
+        <v>1.524684</v>
       </c>
       <c r="O21">
-        <v>0.05525912182320596</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P21">
-        <v>0.05525912182320596</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q21">
-        <v>1.503853923846802</v>
+        <v>11.087197365314</v>
       </c>
       <c r="R21">
-        <v>1.503853923846802</v>
+        <v>66.523184191884</v>
       </c>
       <c r="S21">
-        <v>0.007579505595716526</v>
+        <v>0.03141950363958694</v>
       </c>
       <c r="T21">
-        <v>0.007579505595716526</v>
+        <v>0.02288411549715685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.8015105</v>
+      </c>
+      <c r="H22">
+        <v>15.603021</v>
+      </c>
+      <c r="I22">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J22">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.7407323333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.222197</v>
+      </c>
+      <c r="O22">
+        <v>0.125361503586392</v>
+      </c>
+      <c r="P22">
+        <v>0.1309951108729331</v>
+      </c>
+      <c r="Q22">
+        <v>5.7788310761895</v>
+      </c>
+      <c r="R22">
+        <v>34.672986457137</v>
+      </c>
+      <c r="S22">
+        <v>0.0163763661860052</v>
+      </c>
+      <c r="T22">
+        <v>0.01192758038201789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.8015105</v>
+      </c>
+      <c r="H23">
+        <v>15.603021</v>
+      </c>
+      <c r="I23">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J23">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.080588666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.241766</v>
+      </c>
+      <c r="O23">
+        <v>0.1828787726899297</v>
+      </c>
+      <c r="P23">
+        <v>0.1910971424199137</v>
+      </c>
+      <c r="Q23">
+        <v>8.430223829180999</v>
+      </c>
+      <c r="R23">
+        <v>50.581342975086</v>
+      </c>
+      <c r="S23">
+        <v>0.02389002734921402</v>
+      </c>
+      <c r="T23">
+        <v>0.01740008853611656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.8015105</v>
+      </c>
+      <c r="H24">
+        <v>15.603021</v>
+      </c>
+      <c r="I24">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J24">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.412055666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.236167</v>
+      </c>
+      <c r="O24">
+        <v>0.2389762314336017</v>
+      </c>
+      <c r="P24">
+        <v>0.2497155589001607</v>
+      </c>
+      <c r="Q24">
+        <v>11.0161671100845</v>
+      </c>
+      <c r="R24">
+        <v>66.097002660507</v>
+      </c>
+      <c r="S24">
+        <v>0.03121821423441355</v>
+      </c>
+      <c r="T24">
+        <v>0.02273750815258575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.8015105</v>
+      </c>
+      <c r="H25">
+        <v>15.603021</v>
+      </c>
+      <c r="I25">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J25">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.913051666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.739155</v>
+      </c>
+      <c r="O25">
+        <v>0.3237647697820488</v>
+      </c>
+      <c r="P25">
+        <v>0.3383144003623209</v>
+      </c>
+      <c r="Q25">
+        <v>14.9246926645425</v>
+      </c>
+      <c r="R25">
+        <v>89.548155987255</v>
+      </c>
+      <c r="S25">
+        <v>0.04229440678672624</v>
+      </c>
+      <c r="T25">
+        <v>0.03080475429827324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.8015105</v>
+      </c>
+      <c r="H26">
+        <v>15.603021</v>
+      </c>
+      <c r="I26">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J26">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.762342</v>
+      </c>
+      <c r="N26">
+        <v>1.524684</v>
+      </c>
+      <c r="O26">
+        <v>0.1290187225080277</v>
+      </c>
+      <c r="P26">
+        <v>0.0898777874446717</v>
+      </c>
+      <c r="Q26">
+        <v>5.947419117591</v>
+      </c>
+      <c r="R26">
+        <v>23.789676470364</v>
+      </c>
+      <c r="S26">
+        <v>0.01685412015807542</v>
+      </c>
+      <c r="T26">
+        <v>0.008183698820211064</v>
       </c>
     </row>
   </sheetData>
